--- a/untitled/手机号.xlsx
+++ b/untitled/手机号.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D65A09-5B01-A345-99AE-4F2B4C42C7A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="17620" yWindow="7020" windowWidth="23820" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>邀请人手机号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,54 +52,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13951111003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13951111004</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13951111005</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13590288934</t>
-  </si>
-  <si>
-    <t>13951111006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13951111007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13951111008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13951111009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13951111010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13951111011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13951111012</t>
+    <t>17811111004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17811111005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17811111006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17811111007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,7 +129,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -230,6 +204,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -265,6 +256,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -440,20 +448,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B11"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="2" width="29.5" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -461,83 +469,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -549,16 +501,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -566,7 +518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" s="1" customFormat="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -574,7 +526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" s="1" customFormat="1">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -582,7 +534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" s="1" customFormat="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -590,7 +542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" s="1" customFormat="1">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
